--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964457</v>
+        <v>111964622</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734949.4564622594</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R2" t="n">
-        <v>7088268.525185317</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111965439</v>
+        <v>111964457</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734926.7697699566</v>
+        <v>734949.4564622594</v>
       </c>
       <c r="R3" t="n">
-        <v>7088234.05367971</v>
+        <v>7088268.525185317</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964847</v>
+        <v>111965439</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734972.3834676194</v>
+        <v>734926.7697699566</v>
       </c>
       <c r="R4" t="n">
-        <v>7088252.533270728</v>
+        <v>7088234.05367971</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111965883</v>
+        <v>111964863</v>
       </c>
       <c r="B6" t="n">
-        <v>55611</v>
+        <v>89745</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,44 +1144,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102612</v>
+        <v>2062</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734846.6442297549</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R6" t="n">
-        <v>7088238.22626837</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1213,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1247,6 +1242,576 @@
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111964847</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Kallhögen 5, Vb</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>734972.3834676194</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7088252.533270728</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>16:12</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>16:12</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111964175</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Kallhögen 5, Vb</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>734896.4627943118</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7088342.483217424</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>15:42</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>15:42</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111964050</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90065</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>898</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Blackticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Steccherinum collabens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Vesterholt</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Kallhögen 5, Vb</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>734893.3330648565</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7088354.646951701</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>15:42</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:42</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111965370</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Kallhögen 5, Vb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>734939.7547518623</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7088232.371273324</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111965883</v>
+      </c>
+      <c r="B11" t="n">
+        <v>55611</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Kallhögen 5, Vb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>734846.6442297549</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7088238.22626837</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Vännäs</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Billy Lindblom</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964847</v>
+        <v>111965370</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734972.3834676194</v>
+        <v>734939.7547518623</v>
       </c>
       <c r="R7" t="n">
-        <v>7088252.533270728</v>
+        <v>7088232.371273324</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964175</v>
+        <v>111964847</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734896.4627943118</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R8" t="n">
-        <v>7088342.483217424</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964050</v>
+        <v>111964175</v>
       </c>
       <c r="B9" t="n">
-        <v>90065</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>898</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734893.3330648565</v>
+        <v>734896.4627943118</v>
       </c>
       <c r="R9" t="n">
-        <v>7088354.646951701</v>
+        <v>7088342.483217424</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111965370</v>
+        <v>111964050</v>
       </c>
       <c r="B10" t="n">
-        <v>81248</v>
+        <v>90065</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>898</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734939.7547518623</v>
+        <v>734893.3330648565</v>
       </c>
       <c r="R10" t="n">
-        <v>7088232.371273324</v>
+        <v>7088354.646951701</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964622</v>
+        <v>111964175</v>
       </c>
       <c r="B2" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734972.3834676194</v>
+        <v>734896.4627943118</v>
       </c>
       <c r="R2" t="n">
-        <v>7088252.533270728</v>
+        <v>7088342.483217424</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964457</v>
+        <v>111965370</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734949.4564622594</v>
+        <v>734939.7547518623</v>
       </c>
       <c r="R3" t="n">
-        <v>7088268.525185317</v>
+        <v>7088232.371273324</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111965439</v>
+        <v>111964457</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734926.7697699566</v>
+        <v>734949.4564622594</v>
       </c>
       <c r="R4" t="n">
-        <v>7088234.05367971</v>
+        <v>7088268.525185317</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964632</v>
+        <v>111964863</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89745</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>2062</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964863</v>
+        <v>111965883</v>
       </c>
       <c r="B6" t="n">
-        <v>89745</v>
+        <v>55611</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,39 +1144,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2062</v>
+        <v>102612</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734972.3834676194</v>
+        <v>734846.6442297549</v>
       </c>
       <c r="R6" t="n">
-        <v>7088252.533270728</v>
+        <v>7088238.22626837</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1208,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111965370</v>
+        <v>111964847</v>
       </c>
       <c r="B7" t="n">
-        <v>81248</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734939.7547518623</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R7" t="n">
-        <v>7088232.371273324</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1321,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964847</v>
+        <v>111965439</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1379,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734972.3834676194</v>
+        <v>734926.7697699566</v>
       </c>
       <c r="R8" t="n">
-        <v>7088252.533270728</v>
+        <v>7088234.05367971</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1434,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964175</v>
+        <v>111964632</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734896.4627943118</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R9" t="n">
-        <v>7088342.483217424</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1547,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964050</v>
+        <v>111964622</v>
       </c>
       <c r="B10" t="n">
-        <v>90065</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>898</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734893.3330648565</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R10" t="n">
-        <v>7088354.646951701</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1660,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111965883</v>
+        <v>111964050</v>
       </c>
       <c r="B11" t="n">
-        <v>55611</v>
+        <v>90065</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,44 +1714,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102612</v>
+        <v>898</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734846.6442297549</v>
+        <v>734893.3330648565</v>
       </c>
       <c r="R11" t="n">
-        <v>7088238.22626837</v>
+        <v>7088354.646951701</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964175</v>
+        <v>111964457</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734896.4627943118</v>
+        <v>734949.4564622594</v>
       </c>
       <c r="R2" t="n">
-        <v>7088342.483217424</v>
+        <v>7088268.525185317</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111965370</v>
+        <v>111965439</v>
       </c>
       <c r="B3" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734939.7547518623</v>
+        <v>734926.7697699566</v>
       </c>
       <c r="R3" t="n">
-        <v>7088232.371273324</v>
+        <v>7088234.05367971</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964457</v>
+        <v>111964622</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734949.4564622594</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R4" t="n">
-        <v>7088268.525185317</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964863</v>
+        <v>111965883</v>
       </c>
       <c r="B5" t="n">
-        <v>89745</v>
+        <v>55611</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,39 +1031,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2062</v>
+        <v>102612</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>734972.3834676194</v>
+        <v>734846.6442297549</v>
       </c>
       <c r="R5" t="n">
-        <v>7088252.533270728</v>
+        <v>7088238.22626837</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1095,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1110,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111965883</v>
+        <v>111964847</v>
       </c>
       <c r="B6" t="n">
-        <v>55611</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,40 +1153,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102612</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734846.6442297549</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R6" t="n">
-        <v>7088238.22626837</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964847</v>
+        <v>111964632</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111965439</v>
+        <v>111964050</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90065</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>898</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734926.7697699566</v>
+        <v>734893.3330648565</v>
       </c>
       <c r="R8" t="n">
-        <v>7088234.05367971</v>
+        <v>7088354.646951701</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964632</v>
+        <v>111965370</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1492,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734972.3834676194</v>
+        <v>734939.7547518623</v>
       </c>
       <c r="R9" t="n">
-        <v>7088252.533270728</v>
+        <v>7088232.371273324</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964622</v>
+        <v>111964175</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,25 +1601,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734972.3834676194</v>
+        <v>734896.4627943118</v>
       </c>
       <c r="R10" t="n">
-        <v>7088252.533270728</v>
+        <v>7088342.483217424</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964050</v>
+        <v>111964863</v>
       </c>
       <c r="B11" t="n">
-        <v>90065</v>
+        <v>89745</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,21 +1718,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>898</v>
+        <v>2062</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734893.3330648565</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R11" t="n">
-        <v>7088354.646951701</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964457</v>
+        <v>111964863</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89745</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734949.4564622594</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R2" t="n">
-        <v>7088268.525185317</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111965439</v>
+        <v>111964050</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90065</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>898</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734926.7697699566</v>
+        <v>734893.3330648565</v>
       </c>
       <c r="R3" t="n">
-        <v>7088234.05367971</v>
+        <v>7088354.646951701</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111965883</v>
+        <v>111965370</v>
       </c>
       <c r="B5" t="n">
-        <v>55611</v>
+        <v>81248</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,40 +1035,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102612</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>734846.6442297549</v>
+        <v>734939.7547518623</v>
       </c>
       <c r="R5" t="n">
-        <v>7088238.22626837</v>
+        <v>7088232.371273324</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1100,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964847</v>
+        <v>111964556</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,35 +1148,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734972.3834676194</v>
+        <v>734949.4564622594</v>
       </c>
       <c r="R6" t="n">
-        <v>7088252.533270728</v>
+        <v>7088268.525185317</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964050</v>
+        <v>111965439</v>
       </c>
       <c r="B8" t="n">
-        <v>90065</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>898</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734893.3330648565</v>
+        <v>734926.7697699566</v>
       </c>
       <c r="R8" t="n">
-        <v>7088354.646951701</v>
+        <v>7088234.05367971</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111965370</v>
+        <v>111964175</v>
       </c>
       <c r="B9" t="n">
-        <v>81248</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1492,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734939.7547518623</v>
+        <v>734896.4627943118</v>
       </c>
       <c r="R9" t="n">
-        <v>7088232.371273324</v>
+        <v>7088342.483217424</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964175</v>
+        <v>111964847</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734896.4627943118</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R10" t="n">
-        <v>7088342.483217424</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964863</v>
+        <v>111965883</v>
       </c>
       <c r="B11" t="n">
-        <v>89745</v>
+        <v>55611</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,39 +1714,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2062</v>
+        <v>102612</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734972.3834676194</v>
+        <v>734846.6442297549</v>
       </c>
       <c r="R11" t="n">
-        <v>7088252.533270728</v>
+        <v>7088238.22626837</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1778,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1788,7 +1793,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964863</v>
+        <v>111964050</v>
       </c>
       <c r="B2" t="n">
-        <v>89745</v>
+        <v>90065</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2062</v>
+        <v>898</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734972.3834676194</v>
+        <v>734893.3330648565</v>
       </c>
       <c r="R2" t="n">
-        <v>7088252.533270728</v>
+        <v>7088354.646951701</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964050</v>
+        <v>111964863</v>
       </c>
       <c r="B3" t="n">
-        <v>90065</v>
+        <v>89745</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>898</v>
+        <v>2062</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734893.3330648565</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R3" t="n">
-        <v>7088354.646951701</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964050</v>
+        <v>111964632</v>
       </c>
       <c r="B2" t="n">
-        <v>90065</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734893.3330648565</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R2" t="n">
-        <v>7088354.646951701</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964863</v>
+        <v>111964847</v>
       </c>
       <c r="B3" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964622</v>
+        <v>111964457</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734972.3834676194</v>
+        <v>734949.4564622594</v>
       </c>
       <c r="R4" t="n">
-        <v>7088252.533270728</v>
+        <v>7088268.525185317</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111965370</v>
+        <v>111965883</v>
       </c>
       <c r="B5" t="n">
-        <v>81248</v>
+        <v>55611</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,35 +1035,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>102612</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>734939.7547518623</v>
+        <v>734846.6442297549</v>
       </c>
       <c r="R5" t="n">
-        <v>7088232.371273324</v>
+        <v>7088238.22626837</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1095,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1110,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964556</v>
+        <v>111964175</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,40 +1153,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734949.4564622594</v>
+        <v>734896.4627943118</v>
       </c>
       <c r="R6" t="n">
-        <v>7088268.525185317</v>
+        <v>7088342.483217424</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964632</v>
+        <v>111965370</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734972.3834676194</v>
+        <v>734939.7547518623</v>
       </c>
       <c r="R7" t="n">
-        <v>7088252.533270728</v>
+        <v>7088232.371273324</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111965439</v>
+        <v>111964050</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90065</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>898</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734926.7697699566</v>
+        <v>734893.3330648565</v>
       </c>
       <c r="R8" t="n">
-        <v>7088234.05367971</v>
+        <v>7088354.646951701</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964175</v>
+        <v>111964863</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>89745</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1488,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>2062</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734896.4627943118</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R9" t="n">
-        <v>7088342.483217424</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964847</v>
+        <v>111965439</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734972.3834676194</v>
+        <v>734926.7697699566</v>
       </c>
       <c r="R10" t="n">
-        <v>7088252.533270728</v>
+        <v>7088234.05367971</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111965883</v>
+        <v>111964622</v>
       </c>
       <c r="B11" t="n">
-        <v>55611</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,44 +1714,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102612</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734846.6442297549</v>
+        <v>734972.3834676194</v>
       </c>
       <c r="R11" t="n">
-        <v>7088238.22626837</v>
+        <v>7088252.533270728</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1783,7 +1778,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1788,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964632</v>
+        <v>111964622</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734972.3834676194</v>
+        <v>734972</v>
       </c>
       <c r="R2" t="n">
-        <v>7088252.533270728</v>
+        <v>7088253</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964847</v>
+        <v>111964556</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +809,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734972.3834676194</v>
+        <v>734949</v>
       </c>
       <c r="R3" t="n">
-        <v>7088252.533270728</v>
+        <v>7088269</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964457</v>
+        <v>111964847</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +927,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734949.4564622594</v>
+        <v>734972</v>
       </c>
       <c r="R4" t="n">
-        <v>7088268.525185317</v>
+        <v>7088253</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111965883</v>
+        <v>111964863</v>
       </c>
       <c r="B5" t="n">
-        <v>55611</v>
+        <v>89745</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,44 +1036,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102612</v>
+        <v>2062</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>734846.6442297549</v>
+        <v>734972</v>
       </c>
       <c r="R5" t="n">
-        <v>7088238.22626837</v>
+        <v>7088253</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964175</v>
+        <v>111965883</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>55611</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,35 +1153,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734896.4627943118</v>
+        <v>734847</v>
       </c>
       <c r="R6" t="n">
-        <v>7088342.483217424</v>
+        <v>7088238</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1213,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111965370</v>
+        <v>111965439</v>
       </c>
       <c r="B7" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734939.7547518623</v>
+        <v>734927</v>
       </c>
       <c r="R7" t="n">
-        <v>7088232.371273324</v>
+        <v>7088234</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1326,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964050</v>
+        <v>111964175</v>
       </c>
       <c r="B8" t="n">
-        <v>90065</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>898</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734893.3330648565</v>
+        <v>734896</v>
       </c>
       <c r="R8" t="n">
-        <v>7088354.646951701</v>
+        <v>7088342</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1476,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964863</v>
+        <v>111965370</v>
       </c>
       <c r="B9" t="n">
-        <v>89745</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2062</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734972.3834676194</v>
+        <v>734940</v>
       </c>
       <c r="R9" t="n">
-        <v>7088252.533270728</v>
+        <v>7088232</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1552,7 +1557,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1567,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111965439</v>
+        <v>111964050</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90065</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,25 +1606,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>898</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734926.7697699566</v>
+        <v>734893</v>
       </c>
       <c r="R10" t="n">
-        <v>7088234.05367971</v>
+        <v>7088355</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1665,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,7 +1680,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964622</v>
+        <v>111964632</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1719,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734972.3834676194</v>
+        <v>734972</v>
       </c>
       <c r="R11" t="n">
-        <v>7088252.533270728</v>
+        <v>7088253</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964622</v>
+        <v>111965439</v>
       </c>
       <c r="B2" t="n">
-        <v>89845</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734972</v>
+        <v>734927</v>
       </c>
       <c r="R2" t="n">
-        <v>7088253</v>
+        <v>7088234</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964556</v>
+        <v>111964863</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89879</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,44 +805,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734949</v>
+        <v>734972</v>
       </c>
       <c r="R3" t="n">
-        <v>7088269</v>
+        <v>7088253</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964847</v>
+        <v>111964457</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734972</v>
+        <v>734949</v>
       </c>
       <c r="R4" t="n">
-        <v>7088253</v>
+        <v>7088269</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964863</v>
+        <v>111965370</v>
       </c>
       <c r="B5" t="n">
-        <v>89745</v>
+        <v>81371</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2062</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>734972</v>
+        <v>734940</v>
       </c>
       <c r="R5" t="n">
-        <v>7088253</v>
+        <v>7088232</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1100,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111965883</v>
+        <v>111964622</v>
       </c>
       <c r="B6" t="n">
-        <v>55611</v>
+        <v>89979</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,44 +1144,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102612</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>734847</v>
+        <v>734972</v>
       </c>
       <c r="R6" t="n">
-        <v>7088238</v>
+        <v>7088253</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1218,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111965439</v>
+        <v>111964175</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734927</v>
+        <v>734896</v>
       </c>
       <c r="R7" t="n">
-        <v>7088234</v>
+        <v>7088342</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964175</v>
+        <v>111964847</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89539</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734896</v>
+        <v>734972</v>
       </c>
       <c r="R8" t="n">
-        <v>7088342</v>
+        <v>7088253</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1444,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111965370</v>
+        <v>111964632</v>
       </c>
       <c r="B9" t="n">
-        <v>81248</v>
+        <v>77636</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734940</v>
+        <v>734972</v>
       </c>
       <c r="R9" t="n">
-        <v>7088232</v>
+        <v>7088253</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1557,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1567,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964050</v>
+        <v>111965883</v>
       </c>
       <c r="B10" t="n">
-        <v>90065</v>
+        <v>55643</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,39 +1596,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>898</v>
+        <v>102612</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734893</v>
+        <v>734847</v>
       </c>
       <c r="R10" t="n">
-        <v>7088355</v>
+        <v>7088238</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1670,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964632</v>
+        <v>111964050</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90199</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,25 +1714,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734972</v>
+        <v>734893</v>
       </c>
       <c r="R11" t="n">
-        <v>7088253</v>
+        <v>7088355</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1783,7 +1778,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1788,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111965439</v>
+        <v>111964632</v>
       </c>
       <c r="B2" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734927</v>
+        <v>734972</v>
       </c>
       <c r="R2" t="n">
-        <v>7088234</v>
+        <v>7088253</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964863</v>
+        <v>111965370</v>
       </c>
       <c r="B3" t="n">
-        <v>89879</v>
+        <v>81385</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2062</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734972</v>
+        <v>734940</v>
       </c>
       <c r="R3" t="n">
-        <v>7088253</v>
+        <v>7088232</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964457</v>
+        <v>111964175</v>
       </c>
       <c r="B4" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734949</v>
+        <v>734896</v>
       </c>
       <c r="R4" t="n">
-        <v>7088269</v>
+        <v>7088342</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111965370</v>
+        <v>111964863</v>
       </c>
       <c r="B5" t="n">
-        <v>81371</v>
+        <v>89893</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>2062</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>734940</v>
+        <v>734972</v>
       </c>
       <c r="R5" t="n">
-        <v>7088232</v>
+        <v>7088253</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964622</v>
+        <v>111964847</v>
       </c>
       <c r="B6" t="n">
-        <v>89979</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964175</v>
+        <v>111965439</v>
       </c>
       <c r="B7" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734896</v>
+        <v>734927</v>
       </c>
       <c r="R7" t="n">
-        <v>7088342</v>
+        <v>7088234</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964847</v>
+        <v>111964050</v>
       </c>
       <c r="B8" t="n">
-        <v>89539</v>
+        <v>90213</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>898</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734972</v>
+        <v>734893</v>
       </c>
       <c r="R8" t="n">
-        <v>7088253</v>
+        <v>7088355</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964632</v>
+        <v>111964556</v>
       </c>
       <c r="B9" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,35 +1487,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734972</v>
+        <v>734949</v>
       </c>
       <c r="R9" t="n">
-        <v>7088253</v>
+        <v>7088269</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1547,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1702,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964050</v>
+        <v>111964622</v>
       </c>
       <c r="B11" t="n">
-        <v>90199</v>
+        <v>89993</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,21 +1723,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>898</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734893</v>
+        <v>734972</v>
       </c>
       <c r="R11" t="n">
-        <v>7088355</v>
+        <v>7088253</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1778,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1788,7 +1793,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24922-2019.xlsx
+++ b/artfynd/A 24922-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964632</v>
+        <v>111965439</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>734972</v>
+        <v>734927</v>
       </c>
       <c r="R2" t="n">
-        <v>7088253</v>
+        <v>7088234</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111965370</v>
+        <v>111964863</v>
       </c>
       <c r="B3" t="n">
-        <v>81385</v>
+        <v>89893</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>2062</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>734940</v>
+        <v>734972</v>
       </c>
       <c r="R3" t="n">
-        <v>7088232</v>
+        <v>7088253</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964175</v>
+        <v>111964457</v>
       </c>
       <c r="B4" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>734896</v>
+        <v>734949</v>
       </c>
       <c r="R4" t="n">
-        <v>7088342</v>
+        <v>7088269</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964863</v>
+        <v>111964622</v>
       </c>
       <c r="B5" t="n">
-        <v>89893</v>
+        <v>89993</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2062</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111965439</v>
+        <v>111964050</v>
       </c>
       <c r="B7" t="n">
-        <v>56430</v>
+        <v>90213</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>898</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>734927</v>
+        <v>734893</v>
       </c>
       <c r="R7" t="n">
-        <v>7088234</v>
+        <v>7088355</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964050</v>
+        <v>111965370</v>
       </c>
       <c r="B8" t="n">
-        <v>90213</v>
+        <v>81385</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>898</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>734893</v>
+        <v>734940</v>
       </c>
       <c r="R8" t="n">
-        <v>7088355</v>
+        <v>7088232</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964556</v>
+        <v>111964632</v>
       </c>
       <c r="B9" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,40 +1487,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>734949</v>
+        <v>734972</v>
       </c>
       <c r="R9" t="n">
-        <v>7088269</v>
+        <v>7088253</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1552,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111965883</v>
+        <v>111964175</v>
       </c>
       <c r="B10" t="n">
-        <v>55643</v>
+        <v>89571</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,40 +1600,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>734847</v>
+        <v>734896</v>
       </c>
       <c r="R10" t="n">
-        <v>7088238</v>
+        <v>7088342</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1670,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964622</v>
+        <v>111965883</v>
       </c>
       <c r="B11" t="n">
-        <v>89993</v>
+        <v>55643</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,39 +1709,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>102612</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kallhögen 5, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>734972</v>
+        <v>734847</v>
       </c>
       <c r="R11" t="n">
-        <v>7088253</v>
+        <v>7088238</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1783,7 +1778,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1788,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD11" t="b">
